--- a/data/raw_data/ManyPrimates_mp1_datasheet_Zurich.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_Zurich.xlsx
@@ -34029,7 +34029,7 @@
         <v>1.0</v>
       </c>
       <c r="P80" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q80" s="14" t="s">
         <v>49</v>
@@ -34083,7 +34083,7 @@
         <v>3.0</v>
       </c>
       <c r="P81" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q81" s="14" t="s">
         <v>49</v>
@@ -34137,7 +34137,7 @@
         <v>2.0</v>
       </c>
       <c r="P82" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q82" s="14" t="s">
         <v>49</v>
@@ -35865,7 +35865,7 @@
         <v>1.0</v>
       </c>
       <c r="P114" s="21">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q114" s="14" t="s">
         <v>49</v>
@@ -44019,7 +44019,7 @@
         <v>1.0</v>
       </c>
       <c r="P265" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q265" s="14" t="s">
         <v>49</v>
@@ -52389,7 +52389,7 @@
         <v>3.0</v>
       </c>
       <c r="P420" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q420" s="14" t="s">
         <v>49</v>
@@ -56316,7 +56316,7 @@
     </row>
     <row r="494">
       <c r="A494" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B494" s="19" t="s">
         <v>43</v>
@@ -56369,7 +56369,7 @@
     </row>
     <row r="495">
       <c r="A495" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B495" s="19" t="s">
         <v>43</v>
@@ -56422,7 +56422,7 @@
     </row>
     <row r="496">
       <c r="A496" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>43</v>
@@ -56475,7 +56475,7 @@
     </row>
     <row r="497">
       <c r="A497" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B497" s="19" t="s">
         <v>43</v>
@@ -56528,7 +56528,7 @@
     </row>
     <row r="498">
       <c r="A498" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B498" s="19" t="s">
         <v>43</v>
@@ -56581,7 +56581,7 @@
     </row>
     <row r="499">
       <c r="A499" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B499" s="19" t="s">
         <v>43</v>
@@ -56634,7 +56634,7 @@
     </row>
     <row r="500">
       <c r="A500" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B500" s="19" t="s">
         <v>43</v>
@@ -56687,7 +56687,7 @@
     </row>
     <row r="501">
       <c r="A501" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B501" s="19" t="s">
         <v>43</v>
@@ -56740,7 +56740,7 @@
     </row>
     <row r="502">
       <c r="A502" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B502" s="19" t="s">
         <v>43</v>
@@ -56793,7 +56793,7 @@
     </row>
     <row r="503">
       <c r="A503" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B503" s="19" t="s">
         <v>43</v>
@@ -56846,7 +56846,7 @@
     </row>
     <row r="504">
       <c r="A504" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>43</v>
@@ -56899,7 +56899,7 @@
     </row>
     <row r="505">
       <c r="A505" s="16">
-        <v>2.0201211E7</v>
+        <v>2.0201214E7</v>
       </c>
       <c r="B505" s="19" t="s">
         <v>43</v>
@@ -58905,7 +58905,7 @@
         <v>1.0</v>
       </c>
       <c r="P542" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q542" s="14" t="s">
         <v>49</v>

--- a/data/raw_data/ManyPrimates_mp1_datasheet_Zurich.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_Zurich.xlsx
@@ -36,6 +36,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">formatted in the following way: YYYYMMDD (e.g. 20180131). </t>
     </r>
     <r>
@@ -107,6 +108,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">block number, </t>
     </r>
     <r>
@@ -116,6 +118,7 @@
       <t>continuous across sessions</t>
     </r>
     <r>
+      <rPr/>
       <t>. Each block must be three trials of the same delay type. Must be numeric</t>
     </r>
   </si>
@@ -124,6 +127,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">trial number, </t>
     </r>
     <r>
@@ -133,6 +137,7 @@
       <t>continuous across sessions</t>
     </r>
     <r>
+      <rPr/>
       <t xml:space="preserve"> (i.e., do not start again with 1). Must be numeric</t>
     </r>
   </si>
@@ -153,6 +158,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">first location indicated by subject </t>
     </r>
     <r>
